--- a/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>ea151075-58a0-488b-8ce5-2ec18cf8398d</t>
+    <t>21f0fc50-614f-48e7-9456-6665ddc09997</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>21f0fc50-614f-48e7-9456-6665ddc09997</t>
+    <t>362d197c-6c36-46d2-a26c-c8b385735e1d</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>362d197c-6c36-46d2-a26c-c8b385735e1d</t>
+    <t>e4d91083-6b20-47a4-bf2d-0b1d173f47d9</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>e4d91083-6b20-47a4-bf2d-0b1d173f47d9</t>
+    <t>6a89bd2f-797b-4c59-b0a7-bc91d2a354cd</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>6a89bd2f-797b-4c59-b0a7-bc91d2a354cd</t>
+    <t>ea7c8365-a99a-4214-9f97-d4b05f06fd24</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>

--- a/storage/app/xlsx/seed_cidades_rr.xlsx
+++ b/storage/app/xlsx/seed_cidades_rr.xlsx
@@ -23,7 +23,7 @@
     <t>AMAJARIENSE</t>
   </si>
   <si>
-    <t>ea7c8365-a99a-4214-9f97-d4b05f06fd24</t>
+    <t>917b2c30-ef80-48af-a549-6d38ffb8f880</t>
   </si>
   <si>
     <t>ALTO ALEGRE</t>
